--- a/_site/Data/StimulusModule.xlsx
+++ b/_site/Data/StimulusModule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27C63E-90BE-2F43-80C1-6BC1C7AA1F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9788CF28-98EF-1849-85B4-0BBE33A46322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="1360" windowWidth="27640" windowHeight="15900" xr2:uid="{406C51AA-FDA0-BD41-9A68-09D008286824}"/>
+    <workbookView xWindow="32880" yWindow="-2000" windowWidth="27640" windowHeight="15900" xr2:uid="{406C51AA-FDA0-BD41-9A68-09D008286824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -256,6 +256,18 @@
       </rPr>
       <t xml:space="preserve"> on? Select all that apply. </t>
     </r>
+  </si>
+  <si>
+    <t>•Food
+•Clothing
+•Household supplies and personal care                                 •Household items (TV, electronics, furniture, appliances)  
+•Recreational goods (sports and fitness equipment, bicycles, toys, games)                             
+•Rent
+•Mortgage                                                                             •Utilities and telecommunications
+•Vehicle payments                                                              •Paying down credit card, student loans, or other debts  
+•Charitable donations or giving to family members                             
+•Savings or other investments
+•Other, please describe:</t>
   </si>
 </sst>
 </file>
@@ -319,19 +331,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,205 +666,206 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E10" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="106" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>43</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/_site/Data/StimulusModule.xlsx
+++ b/_site/Data/StimulusModule.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C874F87-0AA2-E74B-971F-172B73D61C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B16816-5CB1-2D4F-97BC-851249CF2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38080" yWindow="-3580" windowWidth="24260" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="2380" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1839,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2331,11 +2330,11 @@
     <hyperlink ref="D21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="D22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D14" r:id="rId10" xr:uid="{23CBE350-7A6B-194C-BB42-9DF6F3433FD0}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{14F3F899-2973-EF4C-AB22-677F09A77648}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{2A31CFD7-BFAD-A34C-9D98-7E8ACDE00FA9}"/>
-    <hyperlink ref="D25" r:id="rId13" xr:uid="{76F65394-3375-2745-9C53-EE4530296A36}"/>
-    <hyperlink ref="D26" r:id="rId14" xr:uid="{6F785C0B-FF93-0349-8D2B-F5BA4B28948E}"/>
-    <hyperlink ref="D27" r:id="rId15" xr:uid="{76329053-7D57-5E4F-AACC-98058B0B21E6}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{2A31CFD7-BFAD-A34C-9D98-7E8ACDE00FA9}"/>
+    <hyperlink ref="D25" r:id="rId12" xr:uid="{76F65394-3375-2745-9C53-EE4530296A36}"/>
+    <hyperlink ref="D26" r:id="rId13" xr:uid="{6F785C0B-FF93-0349-8D2B-F5BA4B28948E}"/>
+    <hyperlink ref="D27" r:id="rId14" xr:uid="{76329053-7D57-5E4F-AACC-98058B0B21E6}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{14F3F899-2973-EF4C-AB22-677F09A77648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/StimulusModule.xlsx
+++ b/_site/Data/StimulusModule.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B16816-5CB1-2D4F-97BC-851249CF2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A98E88CB-CEC1-AE4D-992A-4F077820A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2380" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11840" yWindow="520" windowWidth="16960" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -34,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <r>
@@ -88,9 +99,61 @@
     </r>
   </si>
   <si>
+    <t>02/03/2021-02/06/2021 02/17/2021-02/19/2021 03/31/2021-04/02/2021</t>
+  </si>
+  <si>
+    <t>[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
+With the first federal stimulus check in 2020, did you:     
+Select only one answer.</t>
+  </si>
+  <si>
     <t>•Mostly spend it
 •Mostly save it  
 •Mostly use it to pay off debt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
+What did you and your household spend the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>federal stimulus check in 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> on? Select all that apply.</t>
+    </r>
   </si>
   <si>
     <t>•Food
@@ -105,7 +168,85 @@
 •Other, please describe:</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">[Display this question if: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>With the first federal stimulus check in 2020, did you = Mostly save it OR What did you and your household spend the first federal stimulus check in 2020 on? = Savings or other investments]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+What did you do to save the first federal stimulus check in 2020?</t>
+    </r>
+  </si>
+  <si>
+    <t>•Set it aside to be used for bills sooner rather than later
+•Set it aside to be used for a large expense (e.g., buying a home, home improvements)
+•Set it aside for something special for yourself or your family (e.g., family vacation)
+•Created or added it to a savings/retirement account 
+•Invested it)                             
+•Other</t>
+  </si>
+  <si>
     <t>RAPID Team developed</t>
+  </si>
+  <si>
+    <t>03/31/2021-04/02/2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
+Please indicate how much you agree with the following statement:“Without the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>first federal stimulus check in 2020,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> I could not have paid for basic needs.”</t>
+    </r>
+  </si>
+  <si>
+    <t>•Very inaccurate
+•Somewhat inaccurate
+•Slightly inaccurate
+•Slightly accurate
+•Somewhat accurate
+•Very accurate</t>
+  </si>
+  <si>
+    <t>02/17/2021-02/19/2021 03/31/2021-04/02/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
+In what ways was the first federal stimulus check in 2020 helpful? </t>
+  </si>
+  <si>
+    <t>Open Ended</t>
   </si>
   <si>
     <r>
@@ -142,6 +283,36 @@
 •No, but I expect to receive the second federal stimulus check in the near future  
 •No, and I DO NOT expect to receive the second federal stimulus check  
 •Unsure if I will receive the second federal stimulus check                                           •Other, please describe: ____________</t>
+  </si>
+  <si>
+    <t>[Display this question if "Did you receive the sec ond federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
+With the second federal stimulus check in 2020, did you:     
+Select only one answer.</t>
+  </si>
+  <si>
+    <r>
+      <t>[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
+What did you and your household spend the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> second federal stimulus check in 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> on? Select all that apply.</t>
+    </r>
   </si>
   <si>
     <t>•Food
@@ -156,7 +327,113 @@
 •Other, please describe:</t>
   </si>
   <si>
-    <t>Open Ended</t>
+    <r>
+      <t xml:space="preserve">[Display this question if: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>With the second stimulus check in 2020, did you = Mostly save it OR What did you and your household spend the second federal stimulus check in 2020 on? = Savings or other investments]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+What did you do to save the first federal stimulus check in 2020?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
+Please indicate how much you agree with the following statement:“Without the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>second federal stimulus check in winter 2020-2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, I could not have paid for basic needs.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
+In what ways was the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">second federal stimulus check in winter 2020-2021 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>helpful?</t>
+    </r>
+  </si>
+  <si>
+    <t>Did you receive the third federal stimulus check (max 1400 per independent adult) from March 2021?
+(Also known as an economic impact payment)</t>
+  </si>
+  <si>
+    <t>•Yes, I received the third federal stimulus check  
+•No, but I expect to receive the third federal stimulus check in the near future  
+•No, and I DO NOT expect to receive the third federal stimulus check  
+•Unsure if I will receive the third federal stimulus check                                           •Other, please describe: ____________</t>
+  </si>
+  <si>
+    <t>03/31/2021-04/02/2021 05/12/2021-05/14/2021</t>
+  </si>
+  <si>
+    <t>[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check]   
+With the third federal stimulus check from March 2021, did you:    
+Select only one answer.</t>
+  </si>
+  <si>
+    <t>[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check]   
+What did you and your household spend the third federal stimulus check from March 2021 on? Select all that apply.</t>
+  </si>
+  <si>
+    <t>[Display this question if: With the third stimulus check in 2021, did you = Mostly save it OR What did you and your household spend the third federal stimulus check in 2021 on? = Savings or other investments]
+What did you do to save the third federal stimulus check from March 2021?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check]   
+Please indicate how much you agree with the following statement: 
+"Without the third federal stimulus check from March 2021, I could not have paid for basic needs."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check] 
+In what ways was the third federal stimulus check from March 2021, helpful? </t>
   </si>
   <si>
     <r>
@@ -195,269 +472,6 @@
 •Unsure if I will receive the $600 unemployment bonus                                                                                               •Other, please describe: ____________</t>
   </si>
   <si>
-    <t>[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
-With the first federal stimulus check in 2020, did you:     
-Select only one answer.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
-What did you and your household spend the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>first</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>federal stimulus check in 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> on? Select all that apply.</t>
-    </r>
-  </si>
-  <si>
-    <t>•Very inaccurate
-•Somewhat inaccurate
-•Slightly inaccurate
-•Slightly accurate
-•Somewhat accurate
-•Very accurate</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
-Please indicate how much you agree with the following statement:“Without the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>first federal stimulus check in 2020,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I could not have paid for basic needs.”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Did you receive the first federal stimulus check (max $1200 per independent adult) from April 2020?" = Yes, I received the first federal stimulus check]
-In what ways was the first federal stimulus check in 2020 helpful? </t>
-  </si>
-  <si>
-    <t>[Display this question if "Did you receive the sec ond federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
-With the second federal stimulus check in 2020, did you:     
-Select only one answer.</t>
-  </si>
-  <si>
-    <r>
-      <t>[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
-What did you and your household spend the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> second federal stimulus check in 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> on? Select all that apply.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>With the first federal stimulus check in 2020, did you = Mostly save it OR What did you and your household spend the first federal stimulus check in 2020 on? = Savings or other investments]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-What did you do to save the first federal stimulus check in 2020?</t>
-    </r>
-  </si>
-  <si>
-    <t>•Set it aside to be used for bills sooner rather than later
-•Set it aside to be used for a large expense (e.g., buying a home, home improvements)
-•Set it aside for something special for yourself or your family (e.g., family vacation)
-•Created or added it to a savings/retirement account 
-•Invested it)                             
-•Other</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>43, 45, 51</t>
-  </si>
-  <si>
-    <t>45, 51</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
-In what ways was the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">second federal stimulus check in winter 2020-2021 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>helpful?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>With the second stimulus check in 2020, did you = Mostly save it OR What did you and your household spend the second federal stimulus check in 2020 on? = Savings or other investments]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-What did you do to save the first federal stimulus check in 2020?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Display this question if "Did you receive the second federal stimulus check (max $600 per independent adult) from April 2020?" = Yes, I received the second federal stimulus check]
-Please indicate how much you agree with the following statement:“Without the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>second federal stimulus check in winter 2020-2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, I could not have paid for basic needs.”</t>
-    </r>
-  </si>
-  <si>
-    <t>Did you receive the third federal stimulus check (max 1400 per independent adult) from March 2021?
-(Also known as an economic impact payment)</t>
-  </si>
-  <si>
-    <t>•Yes, I received the third federal stimulus check  
-•No, but I expect to receive the third federal stimulus check in the near future  
-•No, and I DO NOT expect to receive the third federal stimulus check  
-•Unsure if I will receive the third federal stimulus check                                           •Other, please describe: ____________</t>
-  </si>
-  <si>
-    <t>[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check]   
-With the third federal stimulus check from March 2021, did you:    
-Select only one answer.</t>
-  </si>
-  <si>
-    <t>[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check]   
-What did you and your household spend the third federal stimulus check from March 2021 on? Select all that apply.</t>
-  </si>
-  <si>
-    <t>[Display this question if: With the third stimulus check in 2021, did you = Mostly save it OR What did you and your household spend the third federal stimulus check in 2021 on? = Savings or other investments]
-What did you do to save the third federal stimulus check from March 2021?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check]   
-Please indicate how much you agree with the following statement: 
-"Without the third federal stimulus check from March 2021, I could not have paid for basic needs."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Did you receive the third federal stimulus check from March 2021  = Yes, I received the third federal stimulus check] 
-In what ways was the third federal stimulus check from March 2021, helpful? </t>
-  </si>
-  <si>
     <t>[Display this question if "Did you receive the $600 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $600 unemployment bonus]
 With the $600 unemployment bonus/benefit related to COVID-19, did you:  
 Select only one answer.</t>
@@ -548,16 +562,13 @@
   <si>
     <t xml:space="preserve">[Display this question if "Did you receive the $300 unemployment bonus/benefit related to COVID-19 in the past year? = Yes, I received the COVID-19 $300 unemployment bonus]
 In what ways was the 600 unemployment bonus/benefit from related to COVID-19 helpful? </t>
-  </si>
-  <si>
-    <t>51, 57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -667,14 +678,14 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,21 +1850,21 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E2" sqref="E2:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="30.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1866,11 +1877,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="126">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1883,16 +1894,16 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="126">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -1900,16 +1911,16 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="252">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -1917,59 +1928,59 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="126">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="128.25">
       <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="99.75">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="126">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -1977,16 +1988,16 @@
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="126">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -1994,16 +2005,16 @@
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="252">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
@@ -2011,61 +2022,61 @@
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="126">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="128.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="99.75">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="126">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
@@ -2073,16 +2084,16 @@
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="99.75">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -2090,16 +2101,16 @@
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="238" x14ac:dyDescent="0.2">
+      <c r="E15" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="252">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
@@ -2107,61 +2118,61 @@
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="126">
       <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="128.25">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85.5">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="126">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>7</v>
@@ -2169,16 +2180,16 @@
       <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="114">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
@@ -2186,16 +2197,16 @@
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="252">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>7</v>
@@ -2203,46 +2214,46 @@
       <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="148.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="128.25">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="127.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" ht="110.25">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>44</v>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="126">
+      <c r="A25" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>7</v>
@@ -2250,16 +2261,16 @@
       <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E25" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="126">
       <c r="A26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>7</v>
@@ -2267,16 +2278,16 @@
       <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="238" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>47</v>
+      <c r="E26" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="252">
+      <c r="A27" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>7</v>
@@ -2284,38 +2295,38 @@
       <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="173.25">
+      <c r="A28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="110.25">
+      <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="187" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="B29" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="11" t="s">
-        <v>50</v>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
